--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -88,16 +91,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnfsf13</t>
   </si>
   <si>
     <t>Fas</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.336896122126376</v>
+        <v>0.5143760000000001</v>
       </c>
       <c r="H2">
-        <v>0.336896122126376</v>
+        <v>1.543128</v>
       </c>
       <c r="I2">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="J2">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.0370150728677</v>
+        <v>13.394124</v>
       </c>
       <c r="N2">
-        <v>10.0370150728677</v>
+        <v>40.182372</v>
       </c>
       <c r="O2">
-        <v>0.1654301819518997</v>
+        <v>0.1981570880876885</v>
       </c>
       <c r="P2">
-        <v>0.1654301819518997</v>
+        <v>0.1981570880876884</v>
       </c>
       <c r="Q2">
-        <v>3.381431455773113</v>
+        <v>6.889615926624001</v>
       </c>
       <c r="R2">
-        <v>3.381431455773113</v>
+        <v>62.006543339616</v>
       </c>
       <c r="S2">
-        <v>0.007004089545328204</v>
+        <v>0.01152735097075205</v>
       </c>
       <c r="T2">
-        <v>0.007004089545328204</v>
+        <v>0.01152735097075205</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.336896122126376</v>
+        <v>0.5143760000000001</v>
       </c>
       <c r="H3">
-        <v>0.336896122126376</v>
+        <v>1.543128</v>
       </c>
       <c r="I3">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="J3">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.84095361345674</v>
+        <v>9.052203</v>
       </c>
       <c r="N3">
-        <v>8.84095361345674</v>
+        <v>27.156609</v>
       </c>
       <c r="O3">
-        <v>0.1457166851184754</v>
+        <v>0.133921276767233</v>
       </c>
       <c r="P3">
-        <v>0.1457166851184754</v>
+        <v>0.133921276767233</v>
       </c>
       <c r="Q3">
-        <v>2.978482988272747</v>
+        <v>4.656235970328001</v>
       </c>
       <c r="R3">
-        <v>2.978482988272747</v>
+        <v>41.906123732952</v>
       </c>
       <c r="S3">
-        <v>0.006169446825095964</v>
+        <v>0.007790574511591401</v>
       </c>
       <c r="T3">
-        <v>0.006169446825095964</v>
+        <v>0.007790574511591398</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.336896122126376</v>
+        <v>0.5143760000000001</v>
       </c>
       <c r="H4">
-        <v>0.336896122126376</v>
+        <v>1.543128</v>
       </c>
       <c r="I4">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="J4">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.15321717116702</v>
+        <v>5.841584666666666</v>
       </c>
       <c r="N4">
-        <v>5.15321717116702</v>
+        <v>17.524754</v>
       </c>
       <c r="O4">
-        <v>0.0849353765113202</v>
+        <v>0.08642233022214495</v>
       </c>
       <c r="P4">
-        <v>0.0849353765113202</v>
+        <v>0.08642233022214492</v>
       </c>
       <c r="Q4">
-        <v>1.736098881441222</v>
+        <v>3.004770954501333</v>
       </c>
       <c r="R4">
-        <v>1.736098881441222</v>
+        <v>27.042938590512</v>
       </c>
       <c r="S4">
-        <v>0.003596048651052222</v>
+        <v>0.005027428197471541</v>
       </c>
       <c r="T4">
-        <v>0.003596048651052222</v>
+        <v>0.005027428197471539</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.336896122126376</v>
+        <v>0.5143760000000001</v>
       </c>
       <c r="H5">
-        <v>0.336896122126376</v>
+        <v>1.543128</v>
       </c>
       <c r="I5">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="J5">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.3206980018278</v>
+        <v>4.347459333333333</v>
       </c>
       <c r="N5">
-        <v>4.3206980018278</v>
+        <v>13.042378</v>
       </c>
       <c r="O5">
-        <v>0.07121378730752098</v>
+        <v>0.06431774725043435</v>
       </c>
       <c r="P5">
-        <v>0.07121378730752098</v>
+        <v>0.06431774725043433</v>
       </c>
       <c r="Q5">
-        <v>1.455626401694967</v>
+        <v>2.236228742042667</v>
       </c>
       <c r="R5">
-        <v>1.455626401694967</v>
+        <v>20.126058678384</v>
       </c>
       <c r="S5">
-        <v>0.00301509517355703</v>
+        <v>0.003741542900932161</v>
       </c>
       <c r="T5">
-        <v>0.00301509517355703</v>
+        <v>0.003741542900932159</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.336896122126376</v>
+        <v>0.5143760000000001</v>
       </c>
       <c r="H6">
-        <v>0.336896122126376</v>
+        <v>1.543128</v>
       </c>
       <c r="I6">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="J6">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.2340299235469</v>
+        <v>31.50814</v>
       </c>
       <c r="N6">
-        <v>30.2340299235469</v>
+        <v>94.52442000000001</v>
       </c>
       <c r="O6">
-        <v>0.4983175809820238</v>
+        <v>0.4661418151317116</v>
       </c>
       <c r="P6">
-        <v>0.4983175809820238</v>
+        <v>0.4661418151317115</v>
       </c>
       <c r="Q6">
-        <v>10.18572743749576</v>
+        <v>16.20703102064</v>
       </c>
       <c r="R6">
-        <v>10.18572743749576</v>
+        <v>145.86327918576</v>
       </c>
       <c r="S6">
-        <v>0.0210980905541424</v>
+        <v>0.02711677062386399</v>
       </c>
       <c r="T6">
-        <v>0.0210980905541424</v>
+        <v>0.02711677062386398</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.336896122126376</v>
+        <v>0.5143760000000001</v>
       </c>
       <c r="H7">
-        <v>0.336896122126376</v>
+        <v>1.543128</v>
       </c>
       <c r="I7">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="J7">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.08629823093705</v>
+        <v>3.449952999999999</v>
       </c>
       <c r="N7">
-        <v>2.08629823093705</v>
+        <v>10.349859</v>
       </c>
       <c r="O7">
-        <v>0.03438638812875996</v>
+        <v>0.05103974254078766</v>
       </c>
       <c r="P7">
-        <v>0.03438638812875996</v>
+        <v>0.05103974254078766</v>
       </c>
       <c r="Q7">
-        <v>0.7028657836018106</v>
+        <v>1.774573024328</v>
       </c>
       <c r="R7">
-        <v>0.7028657836018106</v>
+        <v>15.971157218952</v>
       </c>
       <c r="S7">
-        <v>0.001455873038115097</v>
+        <v>0.002969124301342809</v>
       </c>
       <c r="T7">
-        <v>0.001455873038115097</v>
+        <v>0.002969124301342808</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.94886625954818</v>
+        <v>0.115299</v>
       </c>
       <c r="H8">
-        <v>3.94886625954818</v>
+        <v>0.345897</v>
       </c>
       <c r="I8">
-        <v>0.4962646671959802</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="J8">
-        <v>0.4962646671959802</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.0370150728677</v>
+        <v>13.394124</v>
       </c>
       <c r="N8">
-        <v>10.0370150728677</v>
+        <v>40.182372</v>
       </c>
       <c r="O8">
-        <v>0.1654301819518997</v>
+        <v>0.1981570880876885</v>
       </c>
       <c r="P8">
-        <v>0.1654301819518997</v>
+        <v>0.1981570880876884</v>
       </c>
       <c r="Q8">
-        <v>39.63483016782378</v>
+        <v>1.544329103076</v>
       </c>
       <c r="R8">
-        <v>39.63483016782378</v>
+        <v>13.898961927684</v>
       </c>
       <c r="S8">
-        <v>0.08209715419052996</v>
+        <v>0.00258389201591198</v>
       </c>
       <c r="T8">
-        <v>0.08209715419052996</v>
+        <v>0.00258389201591198</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>3.94886625954818</v>
+        <v>0.115299</v>
       </c>
       <c r="H9">
-        <v>3.94886625954818</v>
+        <v>0.345897</v>
       </c>
       <c r="I9">
-        <v>0.4962646671959802</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="J9">
-        <v>0.4962646671959802</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.84095361345674</v>
+        <v>9.052203</v>
       </c>
       <c r="N9">
-        <v>8.84095361345674</v>
+        <v>27.156609</v>
       </c>
       <c r="O9">
-        <v>0.1457166851184754</v>
+        <v>0.133921276767233</v>
       </c>
       <c r="P9">
-        <v>0.1457166851184754</v>
+        <v>0.133921276767233</v>
       </c>
       <c r="Q9">
-        <v>34.91174342640988</v>
+        <v>1.043709953697</v>
       </c>
       <c r="R9">
-        <v>34.91174342640988</v>
+        <v>9.393389583273001</v>
       </c>
       <c r="S9">
-        <v>0.07231404224522162</v>
+        <v>0.00174628180671722</v>
       </c>
       <c r="T9">
-        <v>0.07231404224522162</v>
+        <v>0.00174628180671722</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.94886625954818</v>
+        <v>0.115299</v>
       </c>
       <c r="H10">
-        <v>3.94886625954818</v>
+        <v>0.345897</v>
       </c>
       <c r="I10">
-        <v>0.4962646671959802</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="J10">
-        <v>0.4962646671959802</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.15321717116702</v>
+        <v>5.841584666666666</v>
       </c>
       <c r="N10">
-        <v>5.15321717116702</v>
+        <v>17.524754</v>
       </c>
       <c r="O10">
-        <v>0.0849353765113202</v>
+        <v>0.08642233022214495</v>
       </c>
       <c r="P10">
-        <v>0.0849353765113202</v>
+        <v>0.08642233022214492</v>
       </c>
       <c r="Q10">
-        <v>20.34936541534576</v>
+        <v>0.6735288704819999</v>
       </c>
       <c r="R10">
-        <v>20.34936541534576</v>
+        <v>6.061759834337999</v>
       </c>
       <c r="S10">
-        <v>0.04215042635755559</v>
+        <v>0.001126913860172852</v>
       </c>
       <c r="T10">
-        <v>0.04215042635755559</v>
+        <v>0.001126913860172852</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.94886625954818</v>
+        <v>0.115299</v>
       </c>
       <c r="H11">
-        <v>3.94886625954818</v>
+        <v>0.345897</v>
       </c>
       <c r="I11">
-        <v>0.4962646671959802</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="J11">
-        <v>0.4962646671959802</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.3206980018278</v>
+        <v>4.347459333333333</v>
       </c>
       <c r="N11">
-        <v>4.3206980018278</v>
+        <v>13.042378</v>
       </c>
       <c r="O11">
-        <v>0.07121378730752098</v>
+        <v>0.06431774725043435</v>
       </c>
       <c r="P11">
-        <v>0.07121378730752098</v>
+        <v>0.06431774725043433</v>
       </c>
       <c r="Q11">
-        <v>17.06185855711504</v>
+        <v>0.501257713674</v>
       </c>
       <c r="R11">
-        <v>17.06185855711504</v>
+        <v>4.511319423066</v>
       </c>
       <c r="S11">
-        <v>0.03534088645793221</v>
+        <v>0.0008386786221257934</v>
       </c>
       <c r="T11">
-        <v>0.03534088645793221</v>
+        <v>0.0008386786221257933</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.94886625954818</v>
+        <v>0.115299</v>
       </c>
       <c r="H12">
-        <v>3.94886625954818</v>
+        <v>0.345897</v>
       </c>
       <c r="I12">
-        <v>0.4962646671959802</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="J12">
-        <v>0.4962646671959802</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.2340299235469</v>
+        <v>31.50814</v>
       </c>
       <c r="N12">
-        <v>30.2340299235469</v>
+        <v>94.52442000000001</v>
       </c>
       <c r="O12">
-        <v>0.4983175809820238</v>
+        <v>0.4661418151317116</v>
       </c>
       <c r="P12">
-        <v>0.4983175809820238</v>
+        <v>0.4661418151317115</v>
       </c>
       <c r="Q12">
-        <v>119.3901406552644</v>
+        <v>3.63285703386</v>
       </c>
       <c r="R12">
-        <v>119.3901406552644</v>
+        <v>32.69571330474</v>
       </c>
       <c r="S12">
-        <v>0.24729740848395</v>
+        <v>0.006078309517086516</v>
       </c>
       <c r="T12">
-        <v>0.24729740848395</v>
+        <v>0.006078309517086515</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.94886625954818</v>
+        <v>0.115299</v>
       </c>
       <c r="H13">
-        <v>3.94886625954818</v>
+        <v>0.345897</v>
       </c>
       <c r="I13">
-        <v>0.4962646671959802</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="J13">
-        <v>0.4962646671959802</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.08629823093705</v>
+        <v>3.449952999999999</v>
       </c>
       <c r="N13">
-        <v>2.08629823093705</v>
+        <v>10.349859</v>
       </c>
       <c r="O13">
-        <v>0.03438638812875996</v>
+        <v>0.05103974254078766</v>
       </c>
       <c r="P13">
-        <v>0.03438638812875996</v>
+        <v>0.05103974254078766</v>
       </c>
       <c r="Q13">
-        <v>8.238512691502374</v>
+        <v>0.3977761309469999</v>
       </c>
       <c r="R13">
-        <v>8.238512691502374</v>
+        <v>3.579985178523</v>
       </c>
       <c r="S13">
-        <v>0.01706474946079087</v>
+        <v>0.0006655385609369887</v>
       </c>
       <c r="T13">
-        <v>0.01706474946079087</v>
+        <v>0.0006655385609369886</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.73589627117423</v>
+        <v>4.255346333333334</v>
       </c>
       <c r="H14">
-        <v>2.73589627117423</v>
+        <v>12.766039</v>
       </c>
       <c r="I14">
-        <v>0.3438274591381959</v>
+        <v>0.4812537424658725</v>
       </c>
       <c r="J14">
-        <v>0.3438274591381959</v>
+        <v>0.4812537424658725</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.0370150728677</v>
+        <v>13.394124</v>
       </c>
       <c r="N14">
-        <v>10.0370150728677</v>
+        <v>40.182372</v>
       </c>
       <c r="O14">
-        <v>0.1654301819518997</v>
+        <v>0.1981570880876885</v>
       </c>
       <c r="P14">
-        <v>0.1654301819518997</v>
+        <v>0.1981570880876884</v>
       </c>
       <c r="Q14">
-        <v>27.46023211157828</v>
+        <v>56.99663645161201</v>
       </c>
       <c r="R14">
-        <v>27.46023211157828</v>
+        <v>512.9697280645081</v>
       </c>
       <c r="S14">
-        <v>0.05687943912529111</v>
+        <v>0.09536384023833964</v>
       </c>
       <c r="T14">
-        <v>0.05687943912529111</v>
+        <v>0.09536384023833963</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.73589627117423</v>
+        <v>4.255346333333334</v>
       </c>
       <c r="H15">
-        <v>2.73589627117423</v>
+        <v>12.766039</v>
       </c>
       <c r="I15">
-        <v>0.3438274591381959</v>
+        <v>0.4812537424658725</v>
       </c>
       <c r="J15">
-        <v>0.3438274591381959</v>
+        <v>0.4812537424658725</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.84095361345674</v>
+        <v>9.052203</v>
       </c>
       <c r="N15">
-        <v>8.84095361345674</v>
+        <v>27.156609</v>
       </c>
       <c r="O15">
-        <v>0.1457166851184754</v>
+        <v>0.133921276767233</v>
       </c>
       <c r="P15">
-        <v>0.1457166851184754</v>
+        <v>0.133921276767233</v>
       </c>
       <c r="Q15">
-        <v>24.18793202468063</v>
+        <v>38.520258844639</v>
       </c>
       <c r="R15">
-        <v>24.18793202468063</v>
+        <v>346.682329601751</v>
       </c>
       <c r="S15">
-        <v>0.05010139759832595</v>
+        <v>0.06445011564003879</v>
       </c>
       <c r="T15">
-        <v>0.05010139759832595</v>
+        <v>0.06445011564003877</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.73589627117423</v>
+        <v>4.255346333333334</v>
       </c>
       <c r="H16">
-        <v>2.73589627117423</v>
+        <v>12.766039</v>
       </c>
       <c r="I16">
-        <v>0.3438274591381959</v>
+        <v>0.4812537424658725</v>
       </c>
       <c r="J16">
-        <v>0.3438274591381959</v>
+        <v>0.4812537424658725</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.15321717116702</v>
+        <v>5.841584666666666</v>
       </c>
       <c r="N16">
-        <v>5.15321717116702</v>
+        <v>17.524754</v>
       </c>
       <c r="O16">
-        <v>0.0849353765113202</v>
+        <v>0.08642233022214495</v>
       </c>
       <c r="P16">
-        <v>0.0849353765113202</v>
+        <v>0.08642233022214492</v>
       </c>
       <c r="Q16">
-        <v>14.09866764314686</v>
+        <v>24.85796589215622</v>
       </c>
       <c r="R16">
-        <v>14.09866764314686</v>
+        <v>223.721693029406</v>
       </c>
       <c r="S16">
-        <v>0.02920311469683323</v>
+        <v>0.04159106985202873</v>
       </c>
       <c r="T16">
-        <v>0.02920311469683323</v>
+        <v>0.04159106985202872</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.73589627117423</v>
+        <v>4.255346333333334</v>
       </c>
       <c r="H17">
-        <v>2.73589627117423</v>
+        <v>12.766039</v>
       </c>
       <c r="I17">
-        <v>0.3438274591381959</v>
+        <v>0.4812537424658725</v>
       </c>
       <c r="J17">
-        <v>0.3438274591381959</v>
+        <v>0.4812537424658725</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.3206980018278</v>
+        <v>4.347459333333333</v>
       </c>
       <c r="N17">
-        <v>4.3206980018278</v>
+        <v>13.042378</v>
       </c>
       <c r="O17">
-        <v>0.07121378730752098</v>
+        <v>0.06431774725043435</v>
       </c>
       <c r="P17">
-        <v>0.07121378730752098</v>
+        <v>0.06431774725043433</v>
       </c>
       <c r="Q17">
-        <v>11.82098155207063</v>
+        <v>18.49994513341578</v>
       </c>
       <c r="R17">
-        <v>11.82098155207063</v>
+        <v>166.499506200742</v>
       </c>
       <c r="S17">
-        <v>0.02448525554555284</v>
+        <v>0.03095315657124561</v>
       </c>
       <c r="T17">
-        <v>0.02448525554555284</v>
+        <v>0.03095315657124561</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.73589627117423</v>
+        <v>4.255346333333334</v>
       </c>
       <c r="H18">
-        <v>2.73589627117423</v>
+        <v>12.766039</v>
       </c>
       <c r="I18">
-        <v>0.3438274591381959</v>
+        <v>0.4812537424658725</v>
       </c>
       <c r="J18">
-        <v>0.3438274591381959</v>
+        <v>0.4812537424658725</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.2340299235469</v>
+        <v>31.50814</v>
       </c>
       <c r="N18">
-        <v>30.2340299235469</v>
+        <v>94.52442000000001</v>
       </c>
       <c r="O18">
-        <v>0.4983175809820238</v>
+        <v>0.4661418151317116</v>
       </c>
       <c r="P18">
-        <v>0.4983175809820238</v>
+        <v>0.4661418151317115</v>
       </c>
       <c r="Q18">
-        <v>82.71716973040205</v>
+        <v>134.0780480191534</v>
       </c>
       <c r="R18">
-        <v>82.71716973040205</v>
+        <v>1206.70243217238</v>
       </c>
       <c r="S18">
-        <v>0.1713352677129414</v>
+        <v>0.2243324930519711</v>
       </c>
       <c r="T18">
-        <v>0.1713352677129414</v>
+        <v>0.224332493051971</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.73589627117423</v>
+        <v>4.255346333333334</v>
       </c>
       <c r="H19">
-        <v>2.73589627117423</v>
+        <v>12.766039</v>
       </c>
       <c r="I19">
-        <v>0.3438274591381959</v>
+        <v>0.4812537424658725</v>
       </c>
       <c r="J19">
-        <v>0.3438274591381959</v>
+        <v>0.4812537424658725</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.08629823093705</v>
+        <v>3.449952999999999</v>
       </c>
       <c r="N19">
-        <v>2.08629823093705</v>
+        <v>10.349859</v>
       </c>
       <c r="O19">
-        <v>0.03438638812875996</v>
+        <v>0.05103974254078766</v>
       </c>
       <c r="P19">
-        <v>0.03438638812875996</v>
+        <v>0.05103974254078766</v>
       </c>
       <c r="Q19">
-        <v>5.707895550578068</v>
+        <v>14.68074484872233</v>
       </c>
       <c r="R19">
-        <v>5.707895550578068</v>
+        <v>132.126703638501</v>
       </c>
       <c r="S19">
-        <v>0.01182298445925136</v>
+        <v>0.02456306711224866</v>
       </c>
       <c r="T19">
-        <v>0.01182298445925136</v>
+        <v>0.02456306711224866</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.935519281780864</v>
+        <v>2.760257333333333</v>
       </c>
       <c r="H20">
-        <v>0.935519281780864</v>
+        <v>8.280771999999999</v>
       </c>
       <c r="I20">
-        <v>0.117569229878533</v>
+        <v>0.3121682861462829</v>
       </c>
       <c r="J20">
-        <v>0.117569229878533</v>
+        <v>0.3121682861462829</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.0370150728677</v>
+        <v>13.394124</v>
       </c>
       <c r="N20">
-        <v>10.0370150728677</v>
+        <v>40.182372</v>
       </c>
       <c r="O20">
-        <v>0.1654301819518997</v>
+        <v>0.1981570880876885</v>
       </c>
       <c r="P20">
-        <v>0.1654301819518997</v>
+        <v>0.1981570880876884</v>
       </c>
       <c r="Q20">
-        <v>9.389821132192896</v>
+        <v>36.97122899457599</v>
       </c>
       <c r="R20">
-        <v>9.389821132192896</v>
+        <v>332.741060951184</v>
       </c>
       <c r="S20">
-        <v>0.01944949909075044</v>
+        <v>0.06185835857607172</v>
       </c>
       <c r="T20">
-        <v>0.01944949909075044</v>
+        <v>0.06185835857607171</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.935519281780864</v>
+        <v>2.760257333333333</v>
       </c>
       <c r="H21">
-        <v>0.935519281780864</v>
+        <v>8.280771999999999</v>
       </c>
       <c r="I21">
-        <v>0.117569229878533</v>
+        <v>0.3121682861462829</v>
       </c>
       <c r="J21">
-        <v>0.117569229878533</v>
+        <v>0.3121682861462829</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.84095361345674</v>
+        <v>9.052203</v>
       </c>
       <c r="N21">
-        <v>8.84095361345674</v>
+        <v>27.156609</v>
       </c>
       <c r="O21">
-        <v>0.1457166851184754</v>
+        <v>0.133921276767233</v>
       </c>
       <c r="P21">
-        <v>0.1457166851184754</v>
+        <v>0.133921276767233</v>
       </c>
       <c r="Q21">
-        <v>8.270882574718984</v>
+        <v>24.986409713572</v>
       </c>
       <c r="R21">
-        <v>8.270882574718984</v>
+        <v>224.877687422148</v>
       </c>
       <c r="S21">
-        <v>0.01713179844983185</v>
+        <v>0.04180597544694914</v>
       </c>
       <c r="T21">
-        <v>0.01713179844983185</v>
+        <v>0.04180597544694913</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.935519281780864</v>
+        <v>2.760257333333333</v>
       </c>
       <c r="H22">
-        <v>0.935519281780864</v>
+        <v>8.280771999999999</v>
       </c>
       <c r="I22">
-        <v>0.117569229878533</v>
+        <v>0.3121682861462829</v>
       </c>
       <c r="J22">
-        <v>0.117569229878533</v>
+        <v>0.3121682861462829</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.15321717116702</v>
+        <v>5.841584666666666</v>
       </c>
       <c r="N22">
-        <v>5.15321717116702</v>
+        <v>17.524754</v>
       </c>
       <c r="O22">
-        <v>0.0849353765113202</v>
+        <v>0.08642233022214495</v>
       </c>
       <c r="P22">
-        <v>0.0849353765113202</v>
+        <v>0.08642233022214492</v>
       </c>
       <c r="Q22">
-        <v>4.820934026830986</v>
+        <v>16.12427691445422</v>
       </c>
       <c r="R22">
-        <v>4.820934026830986</v>
+        <v>145.118492230088</v>
       </c>
       <c r="S22">
-        <v>0.00998578680587916</v>
+        <v>0.0269783107102151</v>
       </c>
       <c r="T22">
-        <v>0.00998578680587916</v>
+        <v>0.02697831071021509</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.935519281780864</v>
+        <v>2.760257333333333</v>
       </c>
       <c r="H23">
-        <v>0.935519281780864</v>
+        <v>8.280771999999999</v>
       </c>
       <c r="I23">
-        <v>0.117569229878533</v>
+        <v>0.3121682861462829</v>
       </c>
       <c r="J23">
-        <v>0.117569229878533</v>
+        <v>0.3121682861462829</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.3206980018278</v>
+        <v>4.347459333333333</v>
       </c>
       <c r="N23">
-        <v>4.3206980018278</v>
+        <v>13.042378</v>
       </c>
       <c r="O23">
-        <v>0.07121378730752098</v>
+        <v>0.06431774725043435</v>
       </c>
       <c r="P23">
-        <v>0.07121378730752098</v>
+        <v>0.06431774725043433</v>
       </c>
       <c r="Q23">
-        <v>4.042096291461958</v>
+        <v>12.00010650620178</v>
       </c>
       <c r="R23">
-        <v>4.042096291461958</v>
+        <v>108.000958555816</v>
       </c>
       <c r="S23">
-        <v>0.008372550130478893</v>
+        <v>0.02007796092795789</v>
       </c>
       <c r="T23">
-        <v>0.008372550130478893</v>
+        <v>0.02007796092795789</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.935519281780864</v>
+        <v>2.760257333333333</v>
       </c>
       <c r="H24">
-        <v>0.935519281780864</v>
+        <v>8.280771999999999</v>
       </c>
       <c r="I24">
-        <v>0.117569229878533</v>
+        <v>0.3121682861462829</v>
       </c>
       <c r="J24">
-        <v>0.117569229878533</v>
+        <v>0.3121682861462829</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.2340299235469</v>
+        <v>31.50814</v>
       </c>
       <c r="N24">
-        <v>30.2340299235469</v>
+        <v>94.52442000000001</v>
       </c>
       <c r="O24">
-        <v>0.4983175809820238</v>
+        <v>0.4661418151317116</v>
       </c>
       <c r="P24">
-        <v>0.4983175809820238</v>
+        <v>0.4661418151317115</v>
       </c>
       <c r="Q24">
-        <v>28.28451795941774</v>
+        <v>86.97057449469332</v>
       </c>
       <c r="R24">
-        <v>28.28451795941774</v>
+        <v>782.7351704522399</v>
       </c>
       <c r="S24">
-        <v>0.05858681423099006</v>
+        <v>0.1455146915307838</v>
       </c>
       <c r="T24">
-        <v>0.05858681423099006</v>
+        <v>0.1455146915307838</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.760257333333333</v>
+      </c>
+      <c r="H25">
+        <v>8.280771999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.3121682861462829</v>
+      </c>
+      <c r="J25">
+        <v>0.3121682861462829</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.449952999999999</v>
+      </c>
+      <c r="N25">
+        <v>10.349859</v>
+      </c>
+      <c r="O25">
+        <v>0.05103974254078766</v>
+      </c>
+      <c r="P25">
+        <v>0.05103974254078766</v>
+      </c>
+      <c r="Q25">
+        <v>9.522758067905331</v>
+      </c>
+      <c r="R25">
+        <v>85.70482261114797</v>
+      </c>
+      <c r="S25">
+        <v>0.01593298895430521</v>
+      </c>
+      <c r="T25">
+        <v>0.01593298895430521</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.07759</v>
+      </c>
+      <c r="H26">
+        <v>3.23277</v>
+      </c>
+      <c r="I26">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="J26">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>13.394124</v>
+      </c>
+      <c r="N26">
+        <v>40.182372</v>
+      </c>
+      <c r="O26">
+        <v>0.1981570880876885</v>
+      </c>
+      <c r="P26">
+        <v>0.1981570880876884</v>
+      </c>
+      <c r="Q26">
+        <v>14.43337408116</v>
+      </c>
+      <c r="R26">
+        <v>129.90036673044</v>
+      </c>
+      <c r="S26">
+        <v>0.024149179068566</v>
+      </c>
+      <c r="T26">
+        <v>0.02414917906856599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.07759</v>
+      </c>
+      <c r="H27">
+        <v>3.23277</v>
+      </c>
+      <c r="I27">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="J27">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>9.052203</v>
+      </c>
+      <c r="N27">
+        <v>27.156609</v>
+      </c>
+      <c r="O27">
+        <v>0.133921276767233</v>
+      </c>
+      <c r="P27">
+        <v>0.133921276767233</v>
+      </c>
+      <c r="Q27">
+        <v>9.75456343077</v>
+      </c>
+      <c r="R27">
+        <v>87.79107087692999</v>
+      </c>
+      <c r="S27">
+        <v>0.01632083376352274</v>
+      </c>
+      <c r="T27">
+        <v>0.01632083376352274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.07759</v>
+      </c>
+      <c r="H28">
+        <v>3.23277</v>
+      </c>
+      <c r="I28">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="J28">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.841584666666666</v>
+      </c>
+      <c r="N28">
+        <v>17.524754</v>
+      </c>
+      <c r="O28">
+        <v>0.08642233022214495</v>
+      </c>
+      <c r="P28">
+        <v>0.08642233022214492</v>
+      </c>
+      <c r="Q28">
+        <v>6.294833220953333</v>
+      </c>
+      <c r="R28">
+        <v>56.65349898857999</v>
+      </c>
+      <c r="S28">
+        <v>0.01053219114288644</v>
+      </c>
+      <c r="T28">
+        <v>0.01053219114288644</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.07759</v>
+      </c>
+      <c r="H29">
+        <v>3.23277</v>
+      </c>
+      <c r="I29">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="J29">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>4.347459333333333</v>
+      </c>
+      <c r="N29">
+        <v>13.042378</v>
+      </c>
+      <c r="O29">
+        <v>0.06431774725043435</v>
+      </c>
+      <c r="P29">
+        <v>0.06431774725043433</v>
+      </c>
+      <c r="Q29">
+        <v>4.684778703006667</v>
+      </c>
+      <c r="R29">
+        <v>42.16300832706</v>
+      </c>
+      <c r="S29">
+        <v>0.007838330743688442</v>
+      </c>
+      <c r="T29">
+        <v>0.00783833074368844</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.07759</v>
+      </c>
+      <c r="H30">
+        <v>3.23277</v>
+      </c>
+      <c r="I30">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="J30">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>31.50814</v>
+      </c>
+      <c r="N30">
+        <v>94.52442000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.4661418151317116</v>
+      </c>
+      <c r="P30">
+        <v>0.4661418151317115</v>
+      </c>
+      <c r="Q30">
+        <v>33.9528565826</v>
+      </c>
+      <c r="R30">
+        <v>305.5757092434</v>
+      </c>
+      <c r="S30">
+        <v>0.05680817311960432</v>
+      </c>
+      <c r="T30">
+        <v>0.05680817311960431</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.935519281780864</v>
-      </c>
-      <c r="H25">
-        <v>0.935519281780864</v>
-      </c>
-      <c r="I25">
-        <v>0.117569229878533</v>
-      </c>
-      <c r="J25">
-        <v>0.117569229878533</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>2.08629823093705</v>
-      </c>
-      <c r="N25">
-        <v>2.08629823093705</v>
-      </c>
-      <c r="O25">
-        <v>0.03438638812875996</v>
-      </c>
-      <c r="P25">
-        <v>0.03438638812875996</v>
-      </c>
-      <c r="Q25">
-        <v>1.951772222586916</v>
-      </c>
-      <c r="R25">
-        <v>1.951772222586916</v>
-      </c>
-      <c r="S25">
-        <v>0.00404278117060264</v>
-      </c>
-      <c r="T25">
-        <v>0.00404278117060264</v>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.07759</v>
+      </c>
+      <c r="H31">
+        <v>3.23277</v>
+      </c>
+      <c r="I31">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="J31">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.449952999999999</v>
+      </c>
+      <c r="N31">
+        <v>10.349859</v>
+      </c>
+      <c r="O31">
+        <v>0.05103974254078766</v>
+      </c>
+      <c r="P31">
+        <v>0.05103974254078766</v>
+      </c>
+      <c r="Q31">
+        <v>3.717634853269999</v>
+      </c>
+      <c r="R31">
+        <v>33.45871367943</v>
+      </c>
+      <c r="S31">
+        <v>0.006220155403603584</v>
+      </c>
+      <c r="T31">
+        <v>0.006220155403603583</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.1193406666666667</v>
+      </c>
+      <c r="H32">
+        <v>0.358022</v>
+      </c>
+      <c r="I32">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="J32">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>13.394124</v>
+      </c>
+      <c r="N32">
+        <v>40.182372</v>
+      </c>
+      <c r="O32">
+        <v>0.1981570880876885</v>
+      </c>
+      <c r="P32">
+        <v>0.1981570880876884</v>
+      </c>
+      <c r="Q32">
+        <v>1.598463687576</v>
+      </c>
+      <c r="R32">
+        <v>14.386173188184</v>
+      </c>
+      <c r="S32">
+        <v>0.002674467218047104</v>
+      </c>
+      <c r="T32">
+        <v>0.002674467218047104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.1193406666666667</v>
+      </c>
+      <c r="H33">
+        <v>0.358022</v>
+      </c>
+      <c r="I33">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="J33">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>9.052203</v>
+      </c>
+      <c r="N33">
+        <v>27.156609</v>
+      </c>
+      <c r="O33">
+        <v>0.133921276767233</v>
+      </c>
+      <c r="P33">
+        <v>0.133921276767233</v>
+      </c>
+      <c r="Q33">
+        <v>1.080295940822</v>
+      </c>
+      <c r="R33">
+        <v>9.722663467398</v>
+      </c>
+      <c r="S33">
+        <v>0.001807495598413726</v>
+      </c>
+      <c r="T33">
+        <v>0.001807495598413726</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.1193406666666667</v>
+      </c>
+      <c r="H34">
+        <v>0.358022</v>
+      </c>
+      <c r="I34">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="J34">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>5.841584666666666</v>
+      </c>
+      <c r="N34">
+        <v>17.524754</v>
+      </c>
+      <c r="O34">
+        <v>0.08642233022214495</v>
+      </c>
+      <c r="P34">
+        <v>0.08642233022214492</v>
+      </c>
+      <c r="Q34">
+        <v>0.6971386085097777</v>
+      </c>
+      <c r="R34">
+        <v>6.274247476587999</v>
+      </c>
+      <c r="S34">
+        <v>0.001166416459370289</v>
+      </c>
+      <c r="T34">
+        <v>0.001166416459370289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.1193406666666667</v>
+      </c>
+      <c r="H35">
+        <v>0.358022</v>
+      </c>
+      <c r="I35">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="J35">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>4.347459333333333</v>
+      </c>
+      <c r="N35">
+        <v>13.042378</v>
+      </c>
+      <c r="O35">
+        <v>0.06431774725043435</v>
+      </c>
+      <c r="P35">
+        <v>0.06431774725043433</v>
+      </c>
+      <c r="Q35">
+        <v>0.5188286951462222</v>
+      </c>
+      <c r="R35">
+        <v>4.669458256316</v>
+      </c>
+      <c r="S35">
+        <v>0.0008680774844844587</v>
+      </c>
+      <c r="T35">
+        <v>0.0008680774844844585</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.1193406666666667</v>
+      </c>
+      <c r="H36">
+        <v>0.358022</v>
+      </c>
+      <c r="I36">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="J36">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>31.50814</v>
+      </c>
+      <c r="N36">
+        <v>94.52442000000001</v>
+      </c>
+      <c r="O36">
+        <v>0.4661418151317116</v>
+      </c>
+      <c r="P36">
+        <v>0.4661418151317115</v>
+      </c>
+      <c r="Q36">
+        <v>3.760202433026667</v>
+      </c>
+      <c r="R36">
+        <v>33.84182189724</v>
+      </c>
+      <c r="S36">
+        <v>0.006291377288401891</v>
+      </c>
+      <c r="T36">
+        <v>0.006291377288401889</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.1193406666666667</v>
+      </c>
+      <c r="H37">
+        <v>0.358022</v>
+      </c>
+      <c r="I37">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="J37">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.449952999999999</v>
+      </c>
+      <c r="N37">
+        <v>10.349859</v>
+      </c>
+      <c r="O37">
+        <v>0.05103974254078766</v>
+      </c>
+      <c r="P37">
+        <v>0.05103974254078766</v>
+      </c>
+      <c r="Q37">
+        <v>0.4117196909886666</v>
+      </c>
+      <c r="R37">
+        <v>3.705477218897999</v>
+      </c>
+      <c r="S37">
+        <v>0.0006888682083504124</v>
+      </c>
+      <c r="T37">
+        <v>0.0006888682083504123</v>
       </c>
     </row>
   </sheetData>
